--- a/document/picture_synchronization.xlsx
+++ b/document/picture_synchronization.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC20651-6430-4A90-AEDF-B40A5B3A10C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-10680" yWindow="3285" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +17,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>x</t>
   </si>
@@ -61,11 +56,14 @@
   <si>
     <t>Scheduled bus trip</t>
   </si>
+  <si>
+    <t>Prudent relaxation optimal walking trip</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -647,7 +645,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -655,6 +652,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1645,7 +1643,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1653,6 +1650,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1780,11 +1778,84 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prudent relaxation optimal walking trip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F029-498E-A8A0-A68068FC0A5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1828,7 +1899,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$C$2:$C$5</c:f>
+              <c:f>Sheet3!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1856,10 +1927,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$D$1</c:f>
+              <c:f>Sheet3!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1947,7 +2018,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$D$2:$D$5</c:f>
+              <c:f>Sheet3!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1975,10 +2046,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$E$1</c:f>
+              <c:f>Sheet3!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2023,7 +2094,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$E$2:$E$5</c:f>
+              <c:f>Sheet3!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2198,7 +2269,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0292933869756375E-2"/>
+          <c:y val="0.74479002624671919"/>
+          <c:w val="0.84153502852496098"/>
+          <c:h val="0.22743219597550307"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2230,7 +2310,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2238,6 +2317,618 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.1305956547098276E-2"/>
+          <c:y val="3.4683903515686586E-2"/>
+          <c:w val="0.9047705234762321"/>
+          <c:h val="0.65591879447987178"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected walking trip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-289B-4BEB-B4FA-0EEC681988D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prudent relaxation optimal walking trip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-289B-4BEB-B4FA-0EEC681988D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected bus trip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-289B-4BEB-B4FA-0EEC681988D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual bus trip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-289B-4BEB-B4FA-0EEC681988D2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-289B-4BEB-B4FA-0EEC681988D2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-289B-4BEB-B4FA-0EEC681988D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scheduled bus trip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-289B-4BEB-B4FA-0EEC681988D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="522952888"/>
+        <c:axId val="522953544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="522952888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="522953544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="522953544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="-2"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="522952888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0292906095071448E-2"/>
+          <c:y val="0.81100475320925414"/>
+          <c:w val="0.84153502852496098"/>
+          <c:h val="0.16752375052913435"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2392,6 +3083,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3425,6 +4156,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4026,16 +5273,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>458665</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>24179</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>84991</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>126755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>364881</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>100379</xdr:rowOff>
+      <xdr:colOff>599342</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12455</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4055,6 +5302,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13189</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1B8F7D-0F7F-4BAD-AE99-4BD875EFFD3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4325,7 +5608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4465,7 +5748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4915,44 +6198,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4960,16 +6246,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4977,16 +6266,19 @@
         <v>3.5</v>
       </c>
       <c r="C4">
+        <v>1.5</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4994,12 +6286,15 @@
         <v>6</v>
       </c>
       <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>4</v>
       </c>
     </row>
